--- a/Barbara/Results.xlsx
+++ b/Barbara/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38afa0e73f251f50/Рабочий стол/project/mortality-rate-analysis/Barbara/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38afa0e73f251f50/Рабочий стол/data-analytics-second/Moratlity-rate-second/Barbara/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DF75460589B3ACB728475575E616C5ADEDD96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4842197F-359B-4E3C-BFBE-4F2504ACEE90}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -170,14 +167,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="66" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,90 +475,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
